--- a/server/statisticsCSV/reportMoviesTem.xlsx
+++ b/server/statisticsCSV/reportMoviesTem.xlsx
@@ -22,7 +22,7 @@
     <t>Ngày báo cáo:</t>
   </si>
   <si>
-    <t>2023-06-08</t>
+    <t>2023-06-09</t>
   </si>
   <si>
     <t>Phim</t>
